--- a/data/trans_dic/P55$familiar-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P55$familiar-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.5527326618641129</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5767070607606654</v>
+        <v>0.5767070607606656</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2051785967758721</v>
@@ -685,7 +685,7 @@
         <v>0.4577967717039301</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.7964200623465849</v>
+        <v>0.796420062346585</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2919952329147383</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1122556024543295</v>
+        <v>0.1127923108604085</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1711058475530767</v>
+        <v>0.170176832029961</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1899676954711253</v>
+        <v>0.2750987358814739</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.421124279089425</v>
+        <v>0.4216827869214222</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3627870977613085</v>
+        <v>0.3533213506761718</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2315099513506453</v>
+        <v>0.24293574874537</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6858850130164443</v>
+        <v>0.6847575237135053</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1030139135034048</v>
+        <v>0.117852891221782</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3566159772523183</v>
+        <v>0.3558011596409228</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3115698698596581</v>
+        <v>0.3104908809809314</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5960996197698641</v>
+        <v>0.5985845652800347</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7239935877100414</v>
+        <v>0.7587018695202483</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7577379124205694</v>
+        <v>0.7530219468997186</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8245998962339428</v>
+        <v>0.8235437296037293</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7262029752043512</v>
+        <v>0.7223946174387461</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5489892016115085</v>
+        <v>0.5519323603743443</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7365526196409818</v>
+        <v>0.7352779059085218</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6709429595989567</v>
+        <v>0.6783003750499317</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8820355993321258</v>
+        <v>0.8748280077963287</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5515099404221668</v>
+        <v>0.5881798305015501</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6723489000083006</v>
+        <v>0.6623182783916867</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6715747695656608</v>
+        <v>0.6766696254166396</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7836037689634179</v>
+        <v>0.782935744394432</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0642533100485745</v>
+        <v>0.1034112942340898</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06364616590364977</v>
+        <v>0.06591060892589201</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3271251301110445</v>
+        <v>0.3221678692962514</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2132365978493727</v>
+        <v>0.2135636033731203</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07472975864822304</v>
+        <v>0.07581544642030734</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.142918948988474</v>
+        <v>0.1388839188230023</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5188207201708944</v>
+        <v>0.5225044979993397</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2188636759831275</v>
+        <v>0.2207973160529694</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06273035166005286</v>
+        <v>0.0603144906579778</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1384875892347443</v>
+        <v>0.1537625665103818</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5066134849037165</v>
+        <v>0.5113599080418064</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5576791639195856</v>
+        <v>0.5556172506334854</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2701262835890132</v>
+        <v>0.235660634665883</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4845606367899492</v>
+        <v>0.4869733250234894</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7768932929334454</v>
+        <v>0.7756469267146163</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.615305846985477</v>
+        <v>0.6255095348372151</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3255273473953275</v>
+        <v>0.3202126500897923</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4788119937164002</v>
+        <v>0.4789852570978551</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7066533451312647</v>
+        <v>0.7211079299593907</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5151522561548998</v>
+        <v>0.5253481080573973</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2270213187014052</v>
+        <v>0.2289998352454463</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4279424851188161</v>
+        <v>0.4258915267414655</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6926613922279314</v>
+        <v>0.695332322220546</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1423456000398334</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.5507746144686291</v>
+        <v>0.5507746144686292</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2949435249524862</v>
@@ -969,7 +969,7 @@
         <v>0.1994977833535846</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.534789046760107</v>
+        <v>0.5347890467601071</v>
       </c>
     </row>
     <row r="11">
@@ -986,34 +986,34 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.100364760139103</v>
+        <v>0.1052220222915115</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3565828197259245</v>
+        <v>0.3475689781367312</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1679702137618869</v>
+        <v>0.1881733651076249</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1941231514675925</v>
+        <v>0.1942517873171117</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4472437342823501</v>
+        <v>0.438426199177041</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1703203627932876</v>
+        <v>0.1602944983191918</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1281092566219483</v>
+        <v>0.1276751663076756</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08675150879914904</v>
+        <v>0.07294814226555796</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4548058561272146</v>
+        <v>0.444881593806512</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5380198828068855</v>
+        <v>0.5325955495235695</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3909006945921968</v>
+        <v>0.3903098519205069</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4881647133016502</v>
+        <v>0.523086712054561</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6613346902887974</v>
+        <v>0.6690662781462993</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4958886935034913</v>
+        <v>0.4989689549758971</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5576572053591201</v>
+        <v>0.5607401341667793</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.409387540804133</v>
+        <v>0.4426236514500937</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6592079584809322</v>
+        <v>0.6487950860719568</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4401886021768005</v>
+        <v>0.4439002724171326</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4218015464823223</v>
+        <v>0.4241337640765093</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3575512573206476</v>
+        <v>0.3805805061471219</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6286342020065713</v>
+        <v>0.6236221385552588</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.3606635278648364</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.5800548876220719</v>
+        <v>0.580054887622072</v>
       </c>
     </row>
     <row r="14">
@@ -1119,37 +1119,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2795244066064957</v>
+        <v>0.2775531868922054</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1108063357719283</v>
+        <v>0.1114255811792343</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3046193568631015</v>
+        <v>0.3138173339524987</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07030756179199202</v>
+        <v>0.06949152241431826</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2563090700967228</v>
+        <v>0.2691623089913684</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2088697463832054</v>
+        <v>0.2063592594842104</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5027259433963409</v>
+        <v>0.5134162388183322</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06978037329630965</v>
+        <v>0.07322355316107355</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3155180481222163</v>
+        <v>0.3234608282975495</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2085423265758827</v>
+        <v>0.2263079784654956</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4854243273280601</v>
+        <v>0.49074369462695</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2863048303102368</v>
+        <v>0.2816829630259918</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7473888476395426</v>
+        <v>0.7242996948129046</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5424874204426331</v>
+        <v>0.5820553699149588</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6865591378336818</v>
+        <v>0.6873398038489957</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3712384791785498</v>
+        <v>0.3675913409176134</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5784414952545395</v>
+        <v>0.5959416493017013</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6009800497243577</v>
+        <v>0.6090476900189384</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7044426803082174</v>
+        <v>0.7158777091301857</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2940784958222575</v>
+        <v>0.3058342455275118</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5729839702116882</v>
+        <v>0.59195137781518</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5222611948606264</v>
+        <v>0.5284642207631514</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6652178311148452</v>
+        <v>0.6743332804940143</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.2124796030201569</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.5657802472220735</v>
+        <v>0.5657802472220738</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2389659167334352</v>
@@ -1255,37 +1255,37 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1145593922815294</v>
+        <v>0.1151667075295601</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1586631898100381</v>
+        <v>0.1591026686068774</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1191777339666535</v>
+        <v>0.120035958210342</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07047708053516764</v>
+        <v>0.07151690432042697</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08295606706777232</v>
+        <v>0.0824466644419502</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0793700722031376</v>
+        <v>0.07562368267034623</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4030407053136998</v>
+        <v>0.4079384631456933</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1088444525348449</v>
+        <v>0.1010554549977238</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1229685188676298</v>
+        <v>0.1215140306575327</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1248777260178763</v>
+        <v>0.1240493363594007</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3512327493702462</v>
+        <v>0.3545362233804987</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5389880872961007</v>
+        <v>0.5771252578933305</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7427764343766446</v>
+        <v>0.744683548877858</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8353893877676651</v>
+        <v>0.8348801446514869</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.557689807957511</v>
+        <v>0.5635024213916671</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5165770238730408</v>
+        <v>0.5480804334088961</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4169374495651595</v>
+        <v>0.3851298425096565</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4326473586855164</v>
+        <v>0.3946860235497225</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7071207513113439</v>
+        <v>0.7106540503714189</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4725948652136207</v>
+        <v>0.4419992533718037</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4366182630323298</v>
+        <v>0.4403168987016919</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.451834230732138</v>
+        <v>0.4364741139062797</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.6107070742846599</v>
+        <v>0.6044466435982891</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.09366621574381236</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.557439563851407</v>
+        <v>0.5574395638514069</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2861188918864144</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.05259338724147083</v>
+        <v>0.05277295793710211</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05829888434760064</v>
+        <v>0.05807331916693584</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1183406004607815</v>
+        <v>0.1221547661068718</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3139569859517482</v>
+        <v>0.3200902652893365</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.168909891354797</v>
+        <v>0.1683575193785875</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1010024243160249</v>
+        <v>0.1421878702747575</v>
       </c>
       <c r="I20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4523312707628585</v>
+        <v>0.4529306097325256</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.161827458053644</v>
+        <v>0.1664390043599408</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1072998761557686</v>
+        <v>0.1314445703480555</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.08830448105124708</v>
+        <v>0.09468234305051063</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.4154216610928088</v>
+        <v>0.4308413559094406</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4143967441583322</v>
+        <v>0.4200795142475635</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4140485517749947</v>
+        <v>0.4125602227806819</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5757921806436326</v>
+        <v>0.5809885172891993</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5728259687138079</v>
+        <v>0.5692574839217797</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5386741114461752</v>
+        <v>0.5377761996710522</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5415005446532221</v>
+        <v>0.5003990161638171</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3005538353823421</v>
+        <v>0.2933572869220751</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6606521257854669</v>
+        <v>0.6700854562757816</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4330924985192429</v>
+        <v>0.4419637741144812</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4020206734339656</v>
+        <v>0.379263840603782</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3500965640937098</v>
+        <v>0.3356396995648493</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.5859572252823497</v>
+        <v>0.6012587691785716</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.2205295666386771</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.4853873455354362</v>
+        <v>0.4853873455354363</v>
       </c>
     </row>
     <row r="23">
@@ -1527,37 +1527,37 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06654199926229984</v>
+        <v>0.06559688583376815</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.07057886034320777</v>
+        <v>0.07080011322598033</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3483289716241377</v>
+        <v>0.3613744644689407</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06176087014887695</v>
+        <v>0.06406174042273441</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.166647704762449</v>
+        <v>0.1612774218839759</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1380042380218458</v>
+        <v>0.127168839864298</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3710269848906965</v>
+        <v>0.3657486102069289</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.06384188446005463</v>
+        <v>0.05754797012351671</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.160430105196178</v>
+        <v>0.1503516191652221</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1378280931790033</v>
+        <v>0.1429383012367922</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4013895797975291</v>
+        <v>0.394109673565657</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2654049743654086</v>
+        <v>0.2285363883130476</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3496864233692172</v>
+        <v>0.3532993420000405</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3667599683494187</v>
+        <v>0.3713310412774969</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7094370276410363</v>
+        <v>0.708028826679415</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3064840427052586</v>
+        <v>0.3247123697578665</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4320059249724592</v>
+        <v>0.4305511674902747</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3876812061521582</v>
+        <v>0.3833914698626968</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.570542929791198</v>
+        <v>0.5618531023213307</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2636919861806999</v>
+        <v>0.2434622967021547</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.361974003416492</v>
+        <v>0.3439655074684304</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3260730317538335</v>
+        <v>0.3274031802747401</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.5862512281358304</v>
+        <v>0.5693475487302287</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.3266269986978569</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.5405200681360542</v>
+        <v>0.5405200681360541</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.2111819506376277</v>
@@ -1649,7 +1649,7 @@
         <v>0.3184180179617976</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.5181548502100983</v>
+        <v>0.5181548502100984</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.114864378884272</v>
+        <v>0.1056675367099346</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.09711321797679227</v>
+        <v>0.1000697278398507</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1436653877914668</v>
+        <v>0.1586741322514674</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2487555850811473</v>
+        <v>0.2532947990888443</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1007125351314697</v>
+        <v>0.1004338345698844</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1931534728687752</v>
+        <v>0.1902721106761248</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1941421836182683</v>
+        <v>0.1984024385656113</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.4406542783332948</v>
+        <v>0.4427833341400282</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1211162988287356</v>
+        <v>0.1277563870594177</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1836726027868107</v>
+        <v>0.195185314034406</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.2075975952752864</v>
+        <v>0.2055968131631802</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.4326469678677992</v>
+        <v>0.431249500406674</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4055126259824586</v>
+        <v>0.3787959596841206</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5128937220507297</v>
+        <v>0.5172865743111124</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.4942219156977513</v>
+        <v>0.5107051830871783</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.6235579392405591</v>
+        <v>0.6265294944761901</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3487045142593234</v>
+        <v>0.3412815158860772</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4701127380552052</v>
+        <v>0.4604733264814051</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.4873344431557968</v>
+        <v>0.4695295633457761</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.6457606103517702</v>
+        <v>0.6373181808962108</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3101882864502457</v>
+        <v>0.3129214258428649</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.4222046535245884</v>
+        <v>0.4296014076555494</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.4393309934146384</v>
+        <v>0.4462939996000636</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.5999981358742601</v>
+        <v>0.6062370365206101</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.2913127646686062</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.499330212652268</v>
+        <v>0.4993302126522681</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.2557371658920687</v>
@@ -1773,7 +1773,7 @@
         <v>0.2796314783268767</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.5753711342695561</v>
+        <v>0.5753711342695562</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.2333796087890873</v>
@@ -1785,7 +1785,7 @@
         <v>0.2832804344144774</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.5509390828393024</v>
+        <v>0.5509390828393023</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1260247094687757</v>
+        <v>0.1368441615729329</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1623342955361214</v>
+        <v>0.1621881294445405</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2158130664458962</v>
+        <v>0.2190425914393711</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.438497839853246</v>
+        <v>0.4409759403827227</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2021249972789979</v>
+        <v>0.1989970118154025</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2614857081672226</v>
+        <v>0.2640111137412486</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2232358702697837</v>
+        <v>0.223229096580025</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.5325285231013044</v>
+        <v>0.5374346605038134</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1898722202856415</v>
+        <v>0.1927290954218062</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2466038256838472</v>
+        <v>0.2424513138837983</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.2391127998660184</v>
+        <v>0.2335336905231195</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.5167190147420645</v>
+        <v>0.5139491388266003</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2611803867869297</v>
+        <v>0.2790742133208688</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.310686426394403</v>
+        <v>0.3112911963174954</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3643033143631941</v>
+        <v>0.368713043047995</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.5637618466524511</v>
+        <v>0.5659138741824152</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3229410421528258</v>
+        <v>0.3189315091687445</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3836210234831081</v>
+        <v>0.3770778320358577</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3502903037867434</v>
+        <v>0.3456704478220551</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.6123705853640998</v>
+        <v>0.6153927874222012</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2800982219981317</v>
+        <v>0.2849507622718641</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.3287731808288414</v>
+        <v>0.3351425038088994</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.3314516226215171</v>
+        <v>0.3303181974015781</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.5858914964958472</v>
+        <v>0.5838698396335664</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1709</v>
+        <v>2475</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>12311</v>
+        <v>12327</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>10317</v>
+        <v>10047</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5733</v>
+        <v>6016</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>23038</v>
+        <v>23000</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1948</v>
+        <v>2229</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>14342</v>
+        <v>14309</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>10519</v>
+        <v>10483</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>37449</v>
+        <v>37605</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6276</v>
+        <v>6577</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8925</v>
+        <v>8870</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7420</v>
+        <v>7410</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>21230</v>
+        <v>21118</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5623</v>
+        <v>5653</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>20945</v>
+        <v>20909</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>16615</v>
+        <v>16797</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>29627</v>
+        <v>29385</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>10430</v>
+        <v>11123</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>27039</v>
+        <v>26636</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>22674</v>
+        <v>22846</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>49229</v>
+        <v>49187</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1046</v>
+        <v>1684</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>810</v>
+        <v>839</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5388</v>
+        <v>5306</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4842</v>
+        <v>4850</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3164</v>
+        <v>3210</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5194</v>
+        <v>5048</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>30367</v>
+        <v>30583</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>8533</v>
+        <v>8609</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>4131</v>
+        <v>3972</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>6797</v>
+        <v>7546</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>37997</v>
+        <v>38353</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9079</v>
+        <v>9045</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>6353</v>
+        <v>5542</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6170</v>
+        <v>6201</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>12795</v>
+        <v>12775</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>13973</v>
+        <v>14205</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>13781</v>
+        <v>13556</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>17402</v>
+        <v>17408</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>41361</v>
+        <v>42207</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>20085</v>
+        <v>20483</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>14950</v>
+        <v>15080</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>21003</v>
+        <v>20902</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>51950</v>
+        <v>52151</v>
       </c>
     </row>
     <row r="12">
@@ -2514,34 +2514,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1479</v>
+        <v>1551</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8992</v>
+        <v>8765</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6004</v>
+        <v>6726</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5143</v>
+        <v>5146</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>19951</v>
+        <v>19558</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7863</v>
+        <v>7400</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>5239</v>
+        <v>5221</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2782</v>
+        <v>2339</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>31757</v>
+        <v>31064</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5606</v>
+        <v>5549</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5629</v>
+        <v>5620</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7194</v>
+        <v>7708</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>16678</v>
+        <v>16873</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>17726</v>
+        <v>17836</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14773</v>
+        <v>14855</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7094</v>
+        <v>7670</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>29407</v>
+        <v>28942</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>20321</v>
+        <v>20492</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>17248</v>
+        <v>17343</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>11465</v>
+        <v>12203</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>43895</v>
+        <v>43545</v>
       </c>
     </row>
     <row r="16">
@@ -2691,37 +2691,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5384</v>
+        <v>5347</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1547</v>
+        <v>1555</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5410</v>
+        <v>5573</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2244</v>
+        <v>2218</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10116</v>
+        <v>10623</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6137</v>
+        <v>6063</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>19098</v>
+        <v>19504</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3162</v>
+        <v>3318</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>18530</v>
+        <v>18997</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>9038</v>
+        <v>9808</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>27061</v>
+        <v>27357</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>3834</v>
+        <v>3772</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>14397</v>
+        <v>13952</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>7572</v>
+        <v>8124</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>12193</v>
+        <v>12206</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>11850</v>
+        <v>11734</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>22829</v>
+        <v>23520</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>17657</v>
+        <v>17894</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>26760</v>
+        <v>27195</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>13325</v>
+        <v>13857</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>33651</v>
+        <v>34765</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>22634</v>
+        <v>22903</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>37084</v>
+        <v>37592</v>
       </c>
     </row>
     <row r="20">
@@ -2871,37 +2871,37 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>977</v>
+        <v>984</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1101</v>
+        <v>1117</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2096</v>
+        <v>2083</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1918</v>
+        <v>1827</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>6771</v>
+        <v>6854</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2640</v>
+        <v>2451</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4210</v>
+        <v>4160</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>3633</v>
+        <v>3609</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>8780</v>
+        <v>8863</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>4656</v>
+        <v>4986</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>6666</v>
+        <v>6684</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4120</v>
+        <v>4118</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>4572</v>
+        <v>4620</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>8068</v>
+        <v>8560</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>10532</v>
+        <v>9729</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>10453</v>
+        <v>9536</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>11880</v>
+        <v>11940</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>11464</v>
+        <v>10722</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>14948</v>
+        <v>15075</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>13144</v>
+        <v>12697</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>15267</v>
+        <v>15111</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1767</v>
+        <v>1824</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>7606</v>
+        <v>7755</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>4722</v>
+        <v>4706</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2150</v>
+        <v>3026</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>14542</v>
+        <v>14561</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>7432</v>
+        <v>7643</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>4224</v>
+        <v>5174</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>3384</v>
+        <v>3629</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>23419</v>
+        <v>24288</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>7446</v>
+        <v>7548</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7487</v>
+        <v>7460</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8599</v>
+        <v>8677</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>13877</v>
+        <v>13791</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>15058</v>
+        <v>15033</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>11525</v>
+        <v>10650</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>7030</v>
+        <v>6861</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>21239</v>
+        <v>21542</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>19889</v>
+        <v>20296</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>15825</v>
+        <v>14929</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>13417</v>
+        <v>12863</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>33033</v>
+        <v>33895</v>
       </c>
     </row>
     <row r="28">
@@ -3231,37 +3231,37 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1951</v>
+        <v>1924</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1865</v>
+        <v>1871</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>9959</v>
+        <v>10332</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2419</v>
+        <v>2510</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>8227</v>
+        <v>7962</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>7773</v>
+        <v>7163</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>24217</v>
+        <v>23872</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>3696</v>
+        <v>3331</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>12625</v>
+        <v>11832</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>11406</v>
+        <v>11829</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>37675</v>
+        <v>36992</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>4967</v>
+        <v>4277</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>10255</v>
+        <v>10361</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>9693</v>
+        <v>9814</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>20284</v>
+        <v>20244</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>12007</v>
+        <v>12721</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>21327</v>
+        <v>21255</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>21836</v>
+        <v>21595</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>37239</v>
+        <v>36672</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>15264</v>
+        <v>14093</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>28485</v>
+        <v>27068</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>26984</v>
+        <v>27094</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>55026</v>
+        <v>53440</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>3733</v>
+        <v>3434</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2022</v>
+        <v>2084</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>3554</v>
+        <v>3925</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>4832</v>
+        <v>4920</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>4790</v>
+        <v>4777</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>9057</v>
+        <v>8922</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>10808</v>
+        <v>11045</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>30100</v>
+        <v>30246</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>9696</v>
+        <v>10228</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>12438</v>
+        <v>13217</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>16693</v>
+        <v>16532</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>37957</v>
+        <v>37834</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>13179</v>
+        <v>12310</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>10681</v>
+        <v>10772</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>12225</v>
+        <v>12633</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>12112</v>
+        <v>12170</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>16584</v>
+        <v>16231</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>22044</v>
+        <v>21592</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>27131</v>
+        <v>26140</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>44111</v>
+        <v>43534</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>24833</v>
+        <v>25052</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>28590</v>
+        <v>29091</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>35326</v>
+        <v>35886</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>52639</v>
+        <v>53186</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>15952</v>
+        <v>17321</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>23728</v>
+        <v>23707</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>26212</v>
+        <v>26604</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>74159</v>
+        <v>74578</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>46675</v>
+        <v>45953</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>73093</v>
+        <v>73799</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>59685</v>
+        <v>59683</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>190241</v>
+        <v>191994</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>67880</v>
+        <v>68901</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>104979</v>
+        <v>103211</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>92972</v>
+        <v>90803</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>271981</v>
+        <v>270523</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>33060</v>
+        <v>35325</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>45412</v>
+        <v>45501</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>44248</v>
+        <v>44783</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>95344</v>
+        <v>95708</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>74574</v>
+        <v>73648</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>107234</v>
+        <v>105405</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>93655</v>
+        <v>92419</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>218764</v>
+        <v>219844</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>100135</v>
+        <v>101870</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>139958</v>
+        <v>142669</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>128875</v>
+        <v>128435</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>308391</v>
+        <v>307327</v>
       </c>
     </row>
     <row r="40">
